--- a/attic/sat/algo/3-SAT/deterministic/szal_hossz.xlsx
+++ b/attic/sat/algo/3-SAT/deterministic/szal_hossz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab\sandbox\attic\sat\algo\3-SAT\deterministic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E2EFF9-1C65-4387-AF1F-F5463427F103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3ACCEA-FDC9-4A85-B2DF-8F691F1E1ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,12 +142,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,9 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -447,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,9 +543,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
